--- a/medicine/Enfance/Malika_Ferdjoukh/Malika_Ferdjoukh.xlsx
+++ b/medicine/Enfance/Malika_Ferdjoukh/Malika_Ferdjoukh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malika Ferdjoukh, née à Bougie le 1er janvier 1957 (Algérie), est une romancière française de littérature jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Malika Ferdjoukh écrit des romans, ainsi que des scénarios pour la télévision, le cinéma, et la BD. Elle est membre de l'Association 813 (Association des Amis des Littératures Policières) et sociétaire de la Société des Auteurs et Compositeurs dramatiques (S.A.C.D.). Ses œuvres sont traduites en une dizaine de langues, dont le japonais, l'allemand, l'espagnol, l'italien, l'anglais (USA), le russe.
-Son roman jeunesse Sombre Citrouilles reçoit le Prix Sorcières en 2000[1], et il figure dans la « Honour List » 2002[2] dans la catégorie Auteur, liste d'ouvrages jeunesse internationaux choisis par l'Union internationale pour les livres de jeunesse (IBBY).
-Sa série littéraire jeunesse Quatre Sœurs a été adaptée en série de bandes dessinées par Cati Baur. Les trois premiers tomes ont été sélectionnés à trois éditions du Festival d’Angoulême, en Sélection Jeunesse[3],[4],[5].
+Son roman jeunesse Sombre Citrouilles reçoit le Prix Sorcières en 2000, et il figure dans la « Honour List » 2002 dans la catégorie Auteur, liste d'ouvrages jeunesse internationaux choisis par l'Union internationale pour les livres de jeunesse (IBBY).
+Sa série littéraire jeunesse Quatre Sœurs a été adaptée en série de bandes dessinées par Cati Baur. Les trois premiers tomes ont été sélectionnés à trois éditions du Festival d’Angoulême, en Sélection Jeunesse.
 </t>
         </is>
       </c>
@@ -546,12 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature pour la jeunesse
-1989 : Embrouille à minuit, Syros
+          <t>Littérature pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1989 : Embrouille à minuit, Syros
 1989 : Arthur et les filles, Syros
 1990 : L'Assassin de Papa, Syros
 1992 : Comme sur des roulettes, Rageot
-1996 : Le Mystère de Greenwood[6], Bayard Editions (Prix Bernard Versele)
+1996 : Le Mystère de Greenwood, Bayard Editions (Prix Bernard Versele)
 2002 : La Fille d'en face, Bayard
 2010 : Robin dans les bois, Gallimard Jeunesse
 2011 : Chaque soir à 11 heures, Flammarion jeunesse
@@ -569,15 +588,92 @@
 2022 : Charlie et ses soeurs, Bayard Editions. Réédition sous forme de roman illustré de Quatre soeurs, quatre saisons, 2013, coll. BD Kids. illustrations de Lucie Durbiano
 2022 : Griffes, L'École des loisirs. collec. Medium +. Grand Format. 458 pages
 2023 : Le Club de la Pluie défie l'Araignée, l'École des Loisirs. collec. Neuf. 139 pages
-Sous le pseudonyme d'Élisabeth Seiler
-Le Fantôme de Forest Lodge, Syros, 1990
-L'École des loisirs
-Les Joues roses, 1993 (Grand prix du Roman pour la jeunesse décerné par Ministère de la Jeunesse et des sports en 1993[7], Prix Jacques Asklund 1994[8], Grand Prix Européen du Roman décerné par la ville de Poitiers en 1996[7])
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Malika_Ferdjoukh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malika_Ferdjoukh</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme d'Élisabeth Seiler</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Fantôme de Forest Lodge, Syros, 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Malika_Ferdjoukh</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malika_Ferdjoukh</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>L'École des loisirs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Joues roses, 1993 (Grand prix du Roman pour la jeunesse décerné par Ministère de la Jeunesse et des sports en 1993, Prix Jacques Asklund 1994, Grand Prix Européen du Roman décerné par la ville de Poitiers en 1996)
 Fais-moi peur, Médium, 1995
 Rome l'enfer, Médium, 1995
 Faux numéro, Médium, 1996
 La Fiancée du fantôme, (précédemment publié chez Syros, 1990, sous le titre Le Fantôme de Forest Lodge) Mouche, 1999
-Sombres citrouilles, Médium, 1999 (Prix Sorcières 2000[1], catégorie romans adolescents)
+Sombres citrouilles, Médium, 1999 (Prix Sorcières 2000, catégorie romans adolescents)
 Minuit-Cinq, 2002 Sélection Education nationale, niveau 3
 Tétralogie Quatre Sœurs 
 Quatre Sœurs, tome 1 : Enid, 2003. Prix Orbil 2022 (Italie) des Libraires indépendants décerné à Bologne. 2ème Prix Cento 2022, Italie
@@ -593,17 +689,90 @@
 Aggie change de vie, 2009
 Trouville Palace, 2011
 Les 4 filles du Pasteur March, traduction nouvelle et abrégée des 4 filles du docteur March, 2009 coll. Classiques abrégés
-Frankenstein, traduction nouvelle et abrégée, mai 2014 coll. Classiques abrégés
-Série Le club de la pluie
-Série publiée dans le magazine Moi je lis (Milan Presse jeunesse) (2010 à 2012)
+Frankenstein, traduction nouvelle et abrégée, mai 2014 coll. Classiques abrégés</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Malika_Ferdjoukh</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malika_Ferdjoukh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Le club de la pluie</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série publiée dans le magazine Moi je lis (Milan Presse jeunesse) (2010 à 2012)
 Menace au pensionnat
 Le Voleur sonne toujours deux fois
 Le Fantôme des Pierres-Noires
 Un Secret rouge rubis
 Les deux premiers titres, réunis, composent le volume 1 "Le Club de la Pluie au pensionnat des mystères", 
 les deux derniers forment le volume 2 "Le Club de la Pluie brave les tempêtes" (l'Ecole des loisirs).
-Adaptations en bandes dessinées
-La Bobine d'Alfred  / adaptation par l'auteur du roman éponyme de M. Ferdjoukh ; Dessins Nicolas Pitz.  Rue de Sèvres, mars 2018, 100 p.  (ISBN 978-2369 811329).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Malika_Ferdjoukh</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malika_Ferdjoukh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Adaptations en bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Bobine d'Alfred  / adaptation par l'auteur du roman éponyme de M. Ferdjoukh ; Dessins Nicolas Pitz.  Rue de Sèvres, mars 2018, 100 p.  (ISBN 978-2369 811329).
 Quatre sœurs, Quatre saisons  / M. Ferdjoukh ; illustrations Lucie Durbiano. Toulouse : Bayard Edition, coll. BD Kids, 2013, 145 p.  (ISBN 978-2-7470-4621-3). Recueil des planches mensuelles parues dans le magazine Je bouquine de septembre 2006 à décembre 2012
 Intégrale Quatre sœurs , scénario Cati Baur &amp; Malika Ferdjoukh ; dessin et couleur Cati Baur, éd. Rue de Sèvres
 Quatre sœurs, Volume 1, Enid, 2011, 146 p.  (ISBN 978-2-7560-2008-2) Sélection Jeunesse du Festival d'Angoulême 2012
@@ -611,45 +780,47 @@
 Quatre sœurs, Volume 3, Bettina, 2016. Sélection Jeunesse du Festival d'Angoulême 2017
 Quatre sœurs, Volume 4, Geneviève, 2018
 Chaque soir à 11 heures, scénario Eddy Simon ; dessins Camille Benyamina. éd. Casterman, avril 2015
-Sombres citrouilles, scénario M. Ferdjoukh ; dessins Nicolas Pitz, Rue de Sèvres, octobre 2019[9]</t>
+Sombres citrouilles, scénario M. Ferdjoukh ; dessins Nicolas Pitz, Rue de Sèvres, octobre 2019</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Malika_Ferdjoukh</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Malika_Ferdjoukh</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1994 : Prix Jacques Asklund[10] pour Les joues roses 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1994 : Prix Jacques Asklund pour Les joues roses 
 1996 : Prix Européen du Livre Jeunesse (décerné par la BNF, Education Nationale, Académie de Poitiers) pour Rome, l'enfer
 1998 :  Prix Bernard Versele  https://liguedesfamilles.be/storage/824/brochure-laureats-2022.pdf?..
-2000 : Prix Sorcières[1] Catégorie Romans adolescents, pour  Sombres citrouilles
-2002 : (international) « Honour List »[2] de l' IBBY pour Sombres citrouilles
-2012 : Sélection jeunesse du Festival d'Angoulême 2012[3] pour Quatre sœurs, t. 1 : Enid, avec Cati Baur
-2015 : Sélection jeunesse du Festival d'Angoulême 2015[4] pour Quatre sœurs, t. 2 : Hortense, avec Cati Baur
-2016 :  Prix de la Semaine Paul Hurtmans du livre de jeunesse[11] pour Quatre sœurs, tome 1 ; Enid, avec Cati Baur
-2017 : Sélection jeunesse du Festival d'Angoulême 2017[5] pour Quatre sœurs, t. 3 : Bettina, avec Cati Baur
+2000 : Prix Sorcières Catégorie Romans adolescents, pour  Sombres citrouilles
+2002 : (international) « Honour List » de l' IBBY pour Sombres citrouilles
+2012 : Sélection jeunesse du Festival d'Angoulême 2012 pour Quatre sœurs, t. 1 : Enid, avec Cati Baur
+2015 : Sélection jeunesse du Festival d'Angoulême 2015 pour Quatre sœurs, t. 2 : Hortense, avec Cati Baur
+2016 :  Prix de la Semaine Paul Hurtmans du livre de jeunesse pour Quatre sœurs, tome 1 ; Enid, avec Cati Baur
+2017 : Sélection jeunesse du Festival d'Angoulême 2017 pour Quatre sœurs, t. 3 : Bettina, avec Cati Baur
 2022 : Prix polar Jeunesse, au Festival Les Ancres Noires de la ville du Havre, pour l'ensemble de sa série Le Club de la Pluie
 2023 : Finaliste Prix Les Mordus du Polar 2023 pour Portrait au couteau", sélectionné par la Ville de Paris et la Bilipo</t>
         </is>
